--- a/src/main/resources/template/02_Template_多个foreach.xlsx
+++ b/src/main/resources/template/02_Template_多个foreach.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -78,10 +78,6 @@
   </si>
   <si>
     <t>行：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>调用函数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -595,7 +591,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -655,14 +651,12 @@
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="2"/>
+      <c r="E4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="F4" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -673,16 +667,16 @@
         <v>13</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/template/02_Template_多个foreach.xlsx
+++ b/src/main/resources/template/02_Template_多个foreach.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -89,15 +89,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>#{ T(com.kvn.poi.common.InternalUtils).fmtDate(beginTime,'yyyy-MM-dd') }&lt;/poi:foreach&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>调用函数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#{productName}</t>
+    <t>调用自定义函数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用内部函数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#{ T(com.kvn.poi.function.InternalUtils).fmtDate(beginTime,'yyyy-MM-dd') }&lt;/poi:foreach&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#{ #fmtDate(beginTime,'yyyy-MM-dd') }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -591,14 +595,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="40" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.625" style="5" customWidth="1"/>
     <col min="5" max="5" width="28.5" style="5" customWidth="1"/>
     <col min="6" max="6" width="75.5" style="3" customWidth="1"/>
@@ -651,12 +655,14 @@
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="E4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -667,7 +673,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>9</v>
@@ -676,7 +682,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/template/02_Template_多个foreach.xlsx
+++ b/src/main/resources/template/02_Template_多个foreach.xlsx
@@ -97,11 +97,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>#{ T(com.kvn.poi.function.InternalUtils).fmtDate(beginTime,'yyyy-MM-dd') }&lt;/poi:foreach&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>#{ #fmtDate(beginTime,'yyyy-MM-dd') }</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#{ T(com.kvn.poi.exp.function.InternalUtils).fmtDate(beginTime,'yyyy-MM-dd') }&lt;/poi:foreach&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -593,9 +593,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -673,7 +673,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>9</v>
@@ -682,7 +682,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
